--- a/Project Management/Requirements list.xlsx
+++ b/Project Management/Requirements list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/dominic2_pennycook_live_uwe_ac_uk/Documents/Year 3/GDIP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A6EF068-497F-4323-8CB7-8397BFCF77E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E31D2-D654-4586-8469-F29CDA6963C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>For Verification and validation see Verification and Validation plan document</t>
   </si>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">Can pick up the resitor </t>
   </si>
   <si>
-    <t>Budget limmit of £75</t>
-  </si>
-  <si>
     <t>Budget limmitation</t>
   </si>
   <si>
@@ -183,13 +180,25 @@
   </si>
   <si>
     <t>Unfortunatly out of scope for the MVP</t>
+  </si>
+  <si>
+    <t>Project budget limit of £75</t>
+  </si>
+  <si>
+    <t>Robot price competative</t>
+  </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t>Ordered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,7 +265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,10 +564,10 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
@@ -569,7 +578,7 @@
     <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -580,7 +589,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,7 +619,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="51" customHeight="1">
+    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -638,7 +647,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -664,21 +673,21 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -690,19 +699,19 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="30.75">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -714,21 +723,21 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="45.75">
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -740,25 +749,25 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="60.75" customHeight="1">
+    <row r="8" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -768,21 +777,21 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -794,21 +803,21 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="30">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -820,21 +829,21 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="36.75" customHeight="1">
+    <row r="11" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -846,21 +855,21 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="30.75">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -872,21 +881,21 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="30.75">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -898,24 +907,24 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30.75">
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -924,22 +933,22 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="30.75">
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="1"/>
@@ -950,10 +959,16 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,7 +981,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -982,7 +997,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -998,7 +1013,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1014,7 +1029,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1030,7 +1045,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1046,7 +1061,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1062,7 +1077,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1078,7 +1093,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1094,7 +1109,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1110,7 +1125,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1126,7 +1141,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1142,7 +1157,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1158,7 +1173,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1174,7 +1189,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1190,7 +1205,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1206,7 +1221,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1222,7 +1237,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1238,7 +1253,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1254,7 +1269,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1270,7 +1285,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1286,7 +1301,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1302,7 +1317,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1318,7 +1333,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1334,7 +1349,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1350,7 +1365,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1366,7 +1381,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1382,7 +1397,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1398,7 +1413,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1414,7 +1429,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1430,7 +1445,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1446,7 +1461,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1462,7 +1477,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1478,7 +1493,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1494,7 +1509,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1510,7 +1525,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1526,7 +1541,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1542,7 +1557,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1558,7 +1573,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1574,7 +1589,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1590,7 +1605,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1606,7 +1621,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1622,7 +1637,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1638,7 +1653,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1654,7 +1669,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1670,7 +1685,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1686,7 +1701,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1702,7 +1717,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1718,7 +1733,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1734,7 +1749,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1750,7 +1765,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1766,7 +1781,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1782,7 +1797,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1798,7 +1813,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1814,7 +1829,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1830,7 +1845,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1846,7 +1861,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1862,7 +1877,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1878,7 +1893,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1894,7 +1909,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1910,7 +1925,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1926,7 +1941,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1942,7 +1957,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1958,7 +1973,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>

--- a/Project Management/Requirements list.xlsx
+++ b/Project Management/Requirements list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E31D2-D654-4586-8469-F29CDA6963C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F062DD5D-C1B9-4B71-9CEF-FDF33207BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>For Verification and validation see Verification and Validation plan document</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Unfortunatly out of scope for the MVP</t>
   </si>
   <si>
-    <t>Project budget limit of £75</t>
-  </si>
-  <si>
     <t>Robot price competative</t>
   </si>
   <si>
@@ -192,13 +189,37 @@
   </si>
   <si>
     <t>Ordered</t>
+  </si>
+  <si>
+    <t>Robot Price XX</t>
+  </si>
+  <si>
+    <t>Document Sign off</t>
+  </si>
+  <si>
+    <t>Dominic</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Saad</t>
+  </si>
+  <si>
+    <t>Emre</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +233,14 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -229,11 +258,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -246,6 +355,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +703,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -923,7 +1062,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -964,10 +1103,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -997,7 +1136,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1019,11 +1158,13 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="F19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1035,27 +1176,47 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="F20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="F21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1990,9 +2151,11 @@
       <c r="N79" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Management/Requirements list.xlsx
+++ b/Project Management/Requirements list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F062DD5D-C1B9-4B71-9CEF-FDF33207BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C315B3-C3CE-46F0-8F77-1189F55AC772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>For Verification and validation see Verification and Validation plan document</t>
   </si>
@@ -179,9 +179,6 @@
     <t>possibility to use your phone to controll the arm</t>
   </si>
   <si>
-    <t>Unfortunatly out of scope for the MVP</t>
-  </si>
-  <si>
     <t>Robot price competative</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>Ordered</t>
   </si>
   <si>
-    <t>Robot Price XX</t>
-  </si>
-  <si>
     <t>Document Sign off</t>
   </si>
   <si>
@@ -213,13 +207,31 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stakeholder sign off </t>
+  </si>
+  <si>
+    <t>Which Stakeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UWE Fet Team and Hobbyists </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not able to complete this on the first prototype but theoretically tested and works </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfortunately out of scope for the MVP but app integration will be simple once Bluetooth is working </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +248,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -342,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -351,6 +371,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -365,26 +406,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,15 +750,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -817,10 +849,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -1046,7 +1078,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1060,9 +1092,11 @@
         <v>45</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1072,7 +1106,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1087,7 +1121,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="1"/>
@@ -1099,19 +1133,17 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1120,14 +1152,18 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1158,13 +1194,13 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
+      <c r="F19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1176,20 +1212,20 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="J20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1202,20 +1238,20 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>59</v>
+      <c r="F21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>

--- a/Project Management/Requirements list.xlsx
+++ b/Project Management/Requirements list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C315B3-C3CE-46F0-8F77-1189F55AC772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B913B32D-EB5F-4ABA-A850-2723E1CEACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>For Verification and validation see Verification and Validation plan document</t>
   </si>
@@ -225,6 +225,39 @@
   </si>
   <si>
     <t xml:space="preserve">Unfortunately out of scope for the MVP but app integration will be simple once Bluetooth is working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which System level its tracable from </t>
+  </si>
+  <si>
+    <t>Safe - Gripper can pick up resistor - Worth purchacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth purchasing </t>
+  </si>
+  <si>
+    <t>Safe</t>
+  </si>
+  <si>
+    <t>Able to sort all E12 resistors - Ease of use - Worth purchacing</t>
+  </si>
+  <si>
+    <t>Ease of use - Worth purchasing</t>
+  </si>
+  <si>
+    <t>Worth purchasing - Safe</t>
+  </si>
+  <si>
+    <t>Worth purchasing</t>
+  </si>
+  <si>
+    <t>Worth Purchasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ease of use </t>
+  </si>
+  <si>
+    <t>Ease of use</t>
   </si>
 </sst>
 </file>
@@ -362,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,6 +427,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,17 +451,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +774,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F16" sqref="F16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,18 +786,25 @@
     <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -782,9 +828,9 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -810,15 +856,17 @@
         <v>12</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -836,9 +884,11 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -862,9 +912,11 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -886,9 +938,11 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -912,9 +966,11 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -940,9 +996,11 @@
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="H8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -966,9 +1024,11 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -992,9 +1052,11 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="H10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1018,9 +1080,11 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1044,9 +1108,11 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1070,9 +1136,11 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="H13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1098,9 +1166,11 @@
       <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="H14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1124,9 +1194,11 @@
         <v>63</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="H15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1138,10 +1210,10 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="12" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="1"/>
@@ -1158,10 +1230,10 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="14" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="1"/>
@@ -1194,13 +1266,13 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2187,9 +2259,23 @@
       <c r="N79" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="16">
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H1:J2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F19:J19"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
